--- a/imports/NivelLimpieza.xlsx
+++ b/imports/NivelLimpieza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FB9A0D-521F-4E62-97B2-FBAB2D933DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE062B9-40D0-41A5-A3F5-55DC98B99137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>BD</t>
-  </si>
-  <si>
-    <t>AGRUPAMIENTO</t>
   </si>
   <si>
     <t>nivel_limpieza_id</t>
@@ -80,7 +77,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,20 +96,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -159,15 +144,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -190,12 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -204,25 +177,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -559,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D9184C-A933-4A6B-AF3A-5224922105C9}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -571,142 +535,110 @@
     <col min="2" max="2" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
